--- a/Local/Data/Export/DQ-Report_fhirTestData_2020.xlsx
+++ b/Local/Data/Export/DQ-Report_fhirTestData_2020.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="DQ_Report" sheetId="1" r:id="rId1"/>
-    <sheet name="Statistik" sheetId="2" r:id="rId2"/>
+    <sheet name="DQ_Metrics" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -388,17 +388,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0001003</t>
+          <t>260123451-Airolo-P-0000001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0001057</t>
+          <t>260123451-Airolo-F-0000002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>D86.3</t>
+          <t>D86.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -408,24 +408,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10 Code D86.3 ist im BfArM Mapping nicht enthalten.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: D86.0 - 797 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0001008</t>
+          <t>260123451-Airolo-P-0000002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0001062</t>
+          <t>260123451-Airolo-F-0000003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>D86.8</t>
+          <t>D86.1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -435,51 +435,46 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10 Code D86.8 ist im BfArM Mapping nicht enthalten.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: D86.1 - 797 ist gemäß BfArM nicht plausibel. Unplausibles Geburtsdatum 1877-12-01 Max Alter 105. </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0001100</t>
+          <t>260123451-Airolo-P-0000003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0001157</t>
+          <t>260123451-Airolo-F-0000004</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>E03.0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>797</t>
+          <t>G54.8</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E03.0 - 797 ist im BfArM nicht vorhanden.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">ICD10 Code G54.8 ist nicht eindeutig. Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0001101</t>
+          <t>260123451-Airolo-P-0000008</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0001158</t>
+          <t>260123451-Airolo-F-0000009</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>E03.1</t>
+          <t>D86.8</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -489,215 +484,5045 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E03.1 - 797 ist im BfArM nicht vorhanden.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: D86.8 - 797 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0009999</t>
+          <t>260123451-Airolo-P-0000011</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0010498</t>
+          <t>260123451-Airolo-F-0000012</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>I50.13</t>
+          <t>E75.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10 Code D86.0 ist im BfArM Mapping nicht enthalten.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
+          <t>Unplausibles Diagnosedatum 2030-07-09 Datum liegt in der Zukunft.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0010000</t>
+          <t>260123451-Airolo-P-0000019</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0010499</t>
+          <t>260123451-Airolo-F-0000021</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>I40.8</t>
+          <t>I69.4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>329874</t>
+          <t>166282</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10 Code D86.1 ist im BfArM Mapping nicht enthalten.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: I69.4 - 166282 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0010001</t>
+          <t>260123451-Airolo-P-0000023</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0010500</t>
+          <t>260123451-Airolo-F-0000025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>D86.0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>797</t>
+          <t>E83.8</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10 Code D86.3 ist im BfArM Mapping nicht enthalten.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">ICD10 Code E83.8 ist nicht eindeutig. Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0010006</t>
+          <t>260123451-Airolo-P-0000025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0010505</t>
+          <t>260123451-Airolo-F-0000027</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>K83.0</t>
+          <t>D48.6</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>447764</t>
+          <t>OR-4956</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10 Code D86.8 ist im BfArM Mapping nicht enthalten.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. Fehlender AlphaID Code.  </t>
+          <t xml:space="preserve">Orpha Code OR-4956 ist nicht valide.  Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: D48.6 - OR-4956 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0010098</t>
+          <t>260123451-Airolo-P-0000047</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0010602</t>
+          <t>260123451-Airolo-F-0000049</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>E70.0</t>
+          <t>D24</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>79254</t>
+          <t>A5237</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E03.0 - 797 ist im BfArM nicht vorhanden.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Orpha Code A5237 ist nicht valide.  Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: D24 - A5237 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0010099</t>
+          <t>260123451-Airolo-P-0000048</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0010603</t>
+          <t>260123451-Airolo-F-0000050</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>N81.2</t>
+          <t>C91.40</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E03.1 - 797 ist im BfArM nicht vorhanden.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">ICD10 Code C91.40 ist nicht eindeutig. Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0010200</t>
+          <t>260123451-Airolo-P-0000050</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0010709</t>
+          <t>260123451-Airolo-F-0000052</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>E84.0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>586</t>
+          <t>D82.8</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10 Code E84.8 ist im BfArM Mapping nicht enthalten.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">ICD10 Code D82.8 ist nicht eindeutig. Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0010203</t>
+          <t>260123451-Airolo-P-0000052</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0010712</t>
+          <t>260123451-Airolo-F-0000054</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>M17.1</t>
+          <t>K83.01</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10 Code E84.87 ist im BfArM Mapping nicht enthalten.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">ICD10 Code K83.01 ist nicht eindeutig. Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000054</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000056</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>F10.0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unplausibles Geburtsdatum 1848-01-01 Max Alter 105. </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Folgende mandatorische Items fehlen:  Kontakt-Klasse , DiagnoseRolle</t>
+          <t>260123451-Airolo-P-0000100</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000104</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>E03.0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>797</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.0 - 797 ist gemäß BfArM nicht plausibel. </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000101</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000105</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>E03.1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>797</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.1 - 797 ist gemäß BfArM nicht plausibel. </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000105</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000109</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>E03.5</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>424991</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.5 - 424991 ist gemäß BfArM nicht plausibel. </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000202</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000209</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>E84.8</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E84.8 - 586 ist gemäß BfArM nicht plausibel. </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000205</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000212</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>E84.87</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E84.87 - 586 ist gemäß BfArM nicht plausibel. </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000207</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000214</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>E84.89</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E84.89 - 586 ist gemäß BfArM nicht plausibel. </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000242</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000250</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>E66.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Unplausibles Aufnahmedatum 3020-02-21 Datum liegt in der Zukunft.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000242</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000250</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>K74.6</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>168583</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Unplausibles Aufnahmedatum 3020-02-21 Datum liegt in der Zukunft.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000243</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000251</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>K86.8</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Unplausibles Diagnosedatum 2030-01-07 Datum liegt in der Zukunft.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000247</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000255</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>E84.0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000247</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000255</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>E84.1</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000248</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000256</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>E84.1</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000251</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000259</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>E84.9</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000256</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000264</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>G90.2</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: G90.2 - 274 ist gemäß BfArM nicht plausibel. </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000345</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000354</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>E03.1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.1 - 442 ist gemäß BfArM nicht plausibel. </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000358</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000367</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>I27.0</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: I27.0 - 769 ist gemäß BfArM nicht plausibel. </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000390</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000400</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>I05.8</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Unplausibles Diagnosedatum 2040-01-18 Datum liegt in der Zukunft.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000400</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000410</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>S52.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Unplausibles Diagnosedatum 3020-02-26 Datum liegt in der Zukunft.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000435</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000449</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>G43.1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>209981</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: G43.1 - 209981 ist gemäß BfArM nicht plausibel. </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000523</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000541</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>79254</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000527</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000545</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>E84.80</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000649</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000675</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000653</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000679</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000654</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000680</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000655</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000681</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000656</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000682</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000657</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000683</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000658</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000684</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000659</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000685</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000660</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000686</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000661</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000687</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000662</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000688</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000663</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000689</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000664</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000690</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000665</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000691</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000666</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000692</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000667</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000693</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000668</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000694</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000669</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000695</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000670</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000696</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000671</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000697</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000672</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000698</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000673</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000699</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000674</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000700</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000674</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000701</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000675</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000702</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000676</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000703</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000677</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000704</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000678</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000705</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000679</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000706</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000680</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000707</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000680</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000708</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000681</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000709</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000681</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000710</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000682</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000711</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000683</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000712</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000684</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000713</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000685</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000714</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000685</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000715</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000686</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000716</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000687</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000717</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000688</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000718</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000689</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000719</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000690</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000720</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000691</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000721</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000692</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000722</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000693</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000723</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000694</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000724</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000695</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000725</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000695</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000726</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000696</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000727</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000697</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000728</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000698</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000729</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000699</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000730</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000700</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000731</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000700</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000732</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000701</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000733</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000702</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000734</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000703</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000735</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000704</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000736</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000705</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000737</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000706</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000738</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000707</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000739</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000708</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000740</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000709</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000741</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000710</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000742</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000711</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000743</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000712</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000744</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000713</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000745</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000714</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000746</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000715</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000747</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000716</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000748</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000717</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000749</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000718</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000750</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000718</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000751</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000719</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000752</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000720</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000753</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000721</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000754</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000722</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000755</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000723</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000756</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000723</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000757</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000724</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000758</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000725</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000759</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000726</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000760</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000727</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000761</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000727</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000762</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000728</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000763</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000729</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000764</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000730</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000765</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000731</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000766</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000732</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000767</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000733</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000768</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000734</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000769</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000734</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000770</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000735</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000771</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000736</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000772</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000737</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000773</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000738</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000774</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000739</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000775</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000740</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000776</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000741</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000777</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000742</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000778</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000743</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000779</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000744</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000780</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000745</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000781</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000746</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000782</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000747</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000783</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000748</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000784</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000749</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000785</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000750</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000786</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000751</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000787</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000752</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000788</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000753</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000789</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000754</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000790</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000755</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000791</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000756</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000792</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000757</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000793</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000758</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000794</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000759</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000795</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000760</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000796</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000761</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000797</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000762</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000798</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000763</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000799</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000764</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000800</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000765</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000801</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000766</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000802</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000767</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000803</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000768</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000804</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000769</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000805</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000770</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000806</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000771</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000807</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000772</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000808</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000773</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000809</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000774</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000810</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000775</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000811</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000776</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000812</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000777</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000813</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000778</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000814</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000779</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000815</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000780</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000816</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000781</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000817</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000782</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000818</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000783</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000819</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000784</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000820</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000785</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000821</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000786</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000822</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000787</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000823</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000788</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000824</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000789</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000825</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000790</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000826</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000791</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000827</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000792</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000828</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000793</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000829</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000794</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000830</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000795</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000831</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000796</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000832</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000797</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000833</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000798</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000834</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000799</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000835</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000800</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000836</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000801</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000837</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000802</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000838</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000802</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000839</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000803</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000840</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000804</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000841</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000805</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000842</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000806</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000843</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000807</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000844</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000808</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000845</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000809</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000846</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000810</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000847</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000811</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000848</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000812</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000849</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000813</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000850</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000814</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000851</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000815</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000852</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000816</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000853</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000817</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000854</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000818</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000855</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000818</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000856</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000819</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000857</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000820</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000858</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000821</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000859</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000822</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000860</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000823</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000861</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000824</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000862</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000825</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000863</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000826</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000864</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000827</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000865</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000828</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000866</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000829</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000867</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000830</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000868</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000831</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000869</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000832</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000870</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000833</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000871</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000834</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000872</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000835</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000873</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000836</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000874</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000836</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000875</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000837</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000876</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000838</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000877</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000839</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000878</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000840</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000879</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000841</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000880</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000842</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000881</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000843</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000882</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000844</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000883</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000845</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000884</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000846</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000885</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000847</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000886</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000847</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000887</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000848</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000888</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000849</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000889</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000850</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000890</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000851</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000891</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000852</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000892</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000853</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000893</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000854</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000894</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000855</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000895</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000856</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000896</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000857</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000897</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000858</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000898</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000859</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000899</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000860</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000900</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000861</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000901</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000862</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000902</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000863</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000903</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000864</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000904</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000865</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000905</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000866</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000906</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000867</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000907</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000868</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000908</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000869</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000909</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000869</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000910</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000870</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000911</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000870</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0000912</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000983</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0001036</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000984</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0001037</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000985</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0001038</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000986</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0001039</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000987</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0001040</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000988</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0001041</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000989</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0001042</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000990</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0001043</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000991</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0001044</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000992</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0001045</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000993</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0001046</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000994</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0001047</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000995</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0001048</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000996</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0001049</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000997</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0001050</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000998</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0001051</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000999</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0001052</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0001000</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0001053</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Folgende mandatorische Items fehlen:  Kontakt_Klasse , DiagnoseRolle</t>
         </is>
       </c>
     </row>
@@ -708,7 +5533,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -752,7 +5577,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>rdCase_uniqueness_rate</t>
+          <t>rdCase_unambiguity_rate</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -762,47 +5587,52 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>unique_rdCase_relativeFrequency</t>
+          <t>tracerCase_rel_py_ipat</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>orphaCoding_relativeFrequency</t>
+          <t>unambigous_rdCase_rel_py_ipat</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>orphaCoding_no</t>
+          <t>orphaCase_rel_py_ipat</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>orphaCase_no</t>
+          <t>orphaCoding_no_py</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>unique_rdCase_no</t>
+          <t>orphaCase_no_py</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>rdCase_no</t>
+          <t>unambigous_rdCase_no_py</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>case_no</t>
+          <t>rdCase_no_py</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>patient_no</t>
+          <t>case_no_py</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>inpatientCases_no</t>
+          <t>patient_no_py</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>case_no_py_ipat</t>
         </is>
       </c>
     </row>
@@ -819,48 +5649,51 @@
         <v>14.29</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.46</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>47.37</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="G2">
-        <v>90.31999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="H2">
-        <v>90.31999999999999</v>
+        <v>80.81</v>
       </c>
       <c r="I2">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="J2">
-        <v>1.12</v>
+        <v>0.18</v>
       </c>
       <c r="K2">
-        <v>1.24</v>
+        <v>0.8</v>
       </c>
       <c r="L2">
-        <v>124</v>
+        <v>0.9</v>
       </c>
       <c r="M2">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="N2">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="O2">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="P2">
-        <v>1000</v>
+        <v>99</v>
       </c>
       <c r="Q2">
-        <v>962</v>
+        <v>997</v>
       </c>
       <c r="R2">
+        <v>950</v>
+      </c>
+      <c r="S2">
         <v>10000</v>
       </c>
     </row>

--- a/Local/Data/Export/DQ-Report_fhirTestData_2020.xlsx
+++ b/Local/Data/Export/DQ-Report_fhirTestData_2020.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E290"/>
+  <dimension ref="A1:E298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -388,17 +388,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000001</t>
+          <t>260123451-Airolo-P-0000002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000002</t>
+          <t>260123451-Airolo-F-0000003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>D86.0</t>
+          <t>D86.1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -408,83 +408,78 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: D86.0 - 797 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Unplausibles Geburtsdatum 1877-12-01 Max Alter 105. </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000002</t>
+          <t>260123451-Airolo-P-0000003</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000003</t>
+          <t>260123451-Airolo-F-0000004</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>D86.1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>797</t>
+          <t>G54.8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: D86.1 - 797 ist gemäß BfArM nicht plausibel. Unplausibles Geburtsdatum 1877-12-01 Max Alter 105. </t>
+          <t xml:space="preserve">ICD10 Code G54.8 ist nicht eindeutig. Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000003</t>
+          <t>260123451-Airolo-P-0000004</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000004</t>
+          <t>260123451-Airolo-F-0000005</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>G54.8</t>
+          <t>E03.8</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>97927</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD10 Code G54.8 ist nicht eindeutig. Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.8 - 97927 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000008</t>
+          <t>260123451-Airolo-P-0000010</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000009</t>
+          <t>260123451-Airolo-F-0000011</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>D86.8</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>797</t>
+          <t>E27.2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: D86.8 - 797 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Fehlender Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -604,416 +599,431 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A5237</t>
+          <t>50920</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orpha Code A5237 ist nicht valide.  Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: D24 - A5237 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: D24 - 50920 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000048</t>
+          <t>260123451-Airolo-P-0000047</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000050</t>
+          <t>260123451-Airolo-F-0000049</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C91.40</t>
+          <t>D24</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>A5237</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD10 Code C91.40 ist nicht eindeutig. Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+          <t xml:space="preserve">Orpha Code A5237 ist nicht valide.  Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: D24 - A5237 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000050</t>
+          <t>260123451-Airolo-P-0000048</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000052</t>
+          <t>260123451-Airolo-F-0000050</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>D82.8</t>
+          <t>C91.40</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD10 Code D82.8 ist nicht eindeutig. Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+          <t xml:space="preserve">ICD10 Code C91.40 ist nicht eindeutig. Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000052</t>
+          <t>260123451-Airolo-P-0000050</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000054</t>
+          <t>260123451-Airolo-F-0000052</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>K83.01</t>
+          <t>D82.8</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD10 Code K83.01 ist nicht eindeutig. Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+          <t xml:space="preserve">ICD10 Code D82.8 ist nicht eindeutig. Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000054</t>
+          <t>260123451-Airolo-P-0000052</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000056</t>
+          <t>260123451-Airolo-F-0000054</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>F10.0</t>
+          <t>K83.01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unplausibles Geburtsdatum 1848-01-01 Max Alter 105. </t>
+          <t xml:space="preserve">ICD10 Code K83.01 ist nicht eindeutig. Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000100</t>
+          <t>260123451-Airolo-P-0000054</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000104</t>
+          <t>260123451-Airolo-F-0000056</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>E03.0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>797</t>
+          <t>F10.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.0 - 797 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Unplausibles Geburtsdatum 1848-01-01 Max Alter 105. </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000101</t>
+          <t>260123451-Airolo-P-0000061</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000105</t>
+          <t>260123451-Airolo-F-0000063</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>E03.1</t>
+          <t>E03.8</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>97927</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.1 - 797 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.8 - 97927 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000105</t>
+          <t>260123451-Airolo-P-0000084</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000109</t>
+          <t>260123451-Airolo-F-0000086</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>E03.5</t>
+          <t>E03.8</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>424991</t>
+          <t>97927</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.5 - 424991 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.8 - 97927 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000202</t>
+          <t>260123451-Airolo-P-0000100</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000209</t>
+          <t>260123451-Airolo-F-0000104</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>E84.8</t>
+          <t>E03.0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>797</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E84.8 - 586 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.0 - 797 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000205</t>
+          <t>260123451-Airolo-P-0000101</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000212</t>
+          <t>260123451-Airolo-F-0000105</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>E84.87</t>
+          <t>E03.1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>797</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E84.87 - 586 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.1 - 797 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000207</t>
+          <t>260123451-Airolo-P-0000105</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000214</t>
+          <t>260123451-Airolo-F-0000109</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>E84.89</t>
+          <t>E03.5</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>424991</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E84.89 - 586 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.5 - 424991 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000242</t>
+          <t>260123451-Airolo-P-0000202</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000250</t>
+          <t>260123451-Airolo-F-0000209</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>E66.09</t>
+          <t>E84.8</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>586</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Unplausibles Aufnahmedatum 3020-02-21 Datum liegt in der Zukunft.</t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E84.8 - 586 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000242</t>
+          <t>260123451-Airolo-P-0000203</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000250</t>
+          <t>260123451-Airolo-F-0000210</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>K74.6</t>
+          <t>E03.8</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>168583</t>
+          <t>97927</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Unplausibles Aufnahmedatum 3020-02-21 Datum liegt in der Zukunft.</t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.8 - 97927 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000243</t>
+          <t>260123451-Airolo-P-0000207</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000251</t>
+          <t>260123451-Airolo-F-0000214</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>K86.8</t>
+          <t>E84.89</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>586</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Unplausibles Diagnosedatum 2030-01-07 Datum liegt in der Zukunft.</t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E84.89 - 586 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000247</t>
+          <t>260123451-Airolo-P-0000242</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000255</t>
+          <t>260123451-Airolo-F-0000250</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>E84.0</t>
+          <t>E66.09</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+          <t>Unplausibles Aufnahmedatum 3020-02-21 Datum liegt in der Zukunft.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000247</t>
+          <t>260123451-Airolo-P-0000242</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000255</t>
+          <t>260123451-Airolo-F-0000250</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>E84.1</t>
+          <t>K74.6</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>168583</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+          <t>Unplausibles Aufnahmedatum 3020-02-21 Datum liegt in der Zukunft.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000248</t>
+          <t>260123451-Airolo-P-0000243</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000256</t>
+          <t>260123451-Airolo-F-0000251</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>E84.1</t>
+          <t>K86.8</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+          <t>Unplausibles Diagnosedatum 2030-01-07 Datum liegt in der Zukunft.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000251</t>
+          <t>260123451-Airolo-P-0000247</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000259</t>
+          <t>260123451-Airolo-F-0000255</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>E84.9</t>
+          <t>E84.0</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1025,276 +1035,316 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000256</t>
+          <t>260123451-Airolo-P-0000247</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000264</t>
+          <t>260123451-Airolo-F-0000255</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>G90.2</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>274</t>
+          <t>E84.1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: G90.2 - 274 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000345</t>
+          <t>260123451-Airolo-P-0000248</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000354</t>
+          <t>260123451-Airolo-F-0000256</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>E03.1</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>442</t>
+          <t>E84.1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.1 - 442 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000358</t>
+          <t>260123451-Airolo-P-0000251</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000367</t>
+          <t>260123451-Airolo-F-0000259</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>I27.0</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>769</t>
+          <t>E84.9</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: I27.0 - 769 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000390</t>
+          <t>260123451-Airolo-P-0000256</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000400</t>
+          <t>260123451-Airolo-F-0000264</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>I05.8</t>
+          <t>G90.2</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>274</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Unplausibles Diagnosedatum 2040-01-18 Datum liegt in der Zukunft.</t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: G90.2 - 274 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000400</t>
+          <t>260123451-Airolo-P-0000304</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000410</t>
+          <t>260123451-Airolo-F-0000313</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>S52.51</t>
+          <t>D24</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>50920</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Unplausibles Diagnosedatum 3020-02-26 Datum liegt in der Zukunft.</t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: D24 - 50920 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000435</t>
+          <t>260123451-Airolo-P-0000309</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000449</t>
+          <t>260123451-Airolo-F-0000318</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>G43.1</t>
+          <t>E03.8</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>209981</t>
+          <t>97927</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: G43.1 - 209981 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.8 - 97927 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000523</t>
+          <t>260123451-Airolo-P-0000340</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000541</t>
+          <t>260123451-Airolo-F-0000349</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>D24</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>79254</t>
+          <t>50920</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: D24 - 50920 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000527</t>
+          <t>260123451-Airolo-P-0000345</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000545</t>
+          <t>260123451-Airolo-F-0000354</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>E84.80</t>
+          <t>E03.1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>442</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.1 - 442 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000649</t>
+          <t>260123451-Airolo-P-0000358</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000675</t>
+          <t>260123451-Airolo-F-0000367</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>I27.0</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>769</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: I27.0 - 769 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000653</t>
+          <t>260123451-Airolo-P-0000390</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000679</t>
+          <t>260123451-Airolo-F-0000400</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>I05.8</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t>Unplausibles Diagnosedatum 2040-01-18 Datum liegt in der Zukunft.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000654</t>
+          <t>260123451-Airolo-P-0000400</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000680</t>
+          <t>260123451-Airolo-F-0000410</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>S52.51</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t>Unplausibles Diagnosedatum 3020-02-26 Datum liegt in der Zukunft.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000655</t>
+          <t>260123451-Airolo-P-0000435</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000681</t>
+          <t>260123451-Airolo-F-0000449</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>G43.1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>209981</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: G43.1 - 209981 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000656</t>
+          <t>260123451-Airolo-P-0000523</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000682</t>
+          <t>260123451-Airolo-F-0000541</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>79254</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1306,46 +1356,61 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000657</t>
+          <t>260123451-Airolo-P-0000527</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000683</t>
+          <t>260123451-Airolo-F-0000545</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>E84.80</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000658</t>
+          <t>260123451-Airolo-P-0000539</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000684</t>
+          <t>260123451-Airolo-F-0000557</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>E03.8</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>97927</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.8 - 97927 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000659</t>
+          <t>260123451-Airolo-P-0000649</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000685</t>
+          <t>260123451-Airolo-F-0000675</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1357,12 +1422,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000660</t>
+          <t>260123451-Airolo-P-0000653</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000686</t>
+          <t>260123451-Airolo-F-0000679</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1374,12 +1439,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000661</t>
+          <t>260123451-Airolo-P-0000654</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000687</t>
+          <t>260123451-Airolo-F-0000680</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1391,12 +1456,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000662</t>
+          <t>260123451-Airolo-P-0000655</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000688</t>
+          <t>260123451-Airolo-F-0000681</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1408,12 +1473,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000663</t>
+          <t>260123451-Airolo-P-0000656</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000689</t>
+          <t>260123451-Airolo-F-0000682</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1425,12 +1490,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000664</t>
+          <t>260123451-Airolo-P-0000657</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000690</t>
+          <t>260123451-Airolo-F-0000683</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1442,12 +1507,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000665</t>
+          <t>260123451-Airolo-P-0000658</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000691</t>
+          <t>260123451-Airolo-F-0000684</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1459,12 +1524,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000666</t>
+          <t>260123451-Airolo-P-0000659</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000692</t>
+          <t>260123451-Airolo-F-0000685</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1476,12 +1541,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000667</t>
+          <t>260123451-Airolo-P-0000660</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000693</t>
+          <t>260123451-Airolo-F-0000686</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1493,12 +1558,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000668</t>
+          <t>260123451-Airolo-P-0000661</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000694</t>
+          <t>260123451-Airolo-F-0000687</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1510,12 +1575,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000669</t>
+          <t>260123451-Airolo-P-0000662</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000695</t>
+          <t>260123451-Airolo-F-0000688</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1527,12 +1592,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000670</t>
+          <t>260123451-Airolo-P-0000663</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000696</t>
+          <t>260123451-Airolo-F-0000689</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1544,12 +1609,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000671</t>
+          <t>260123451-Airolo-P-0000664</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000697</t>
+          <t>260123451-Airolo-F-0000690</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1561,12 +1626,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000672</t>
+          <t>260123451-Airolo-P-0000665</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000698</t>
+          <t>260123451-Airolo-F-0000691</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1578,12 +1643,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000673</t>
+          <t>260123451-Airolo-P-0000666</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000699</t>
+          <t>260123451-Airolo-F-0000692</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1595,12 +1660,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000674</t>
+          <t>260123451-Airolo-P-0000667</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000700</t>
+          <t>260123451-Airolo-F-0000693</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1612,12 +1677,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000674</t>
+          <t>260123451-Airolo-P-0000668</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000701</t>
+          <t>260123451-Airolo-F-0000694</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1629,12 +1694,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000675</t>
+          <t>260123451-Airolo-P-0000669</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000702</t>
+          <t>260123451-Airolo-F-0000695</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1646,12 +1711,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000676</t>
+          <t>260123451-Airolo-P-0000670</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000703</t>
+          <t>260123451-Airolo-F-0000696</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1663,12 +1728,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000677</t>
+          <t>260123451-Airolo-P-0000671</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000704</t>
+          <t>260123451-Airolo-F-0000697</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1680,12 +1745,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000678</t>
+          <t>260123451-Airolo-P-0000672</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000705</t>
+          <t>260123451-Airolo-F-0000698</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -1697,12 +1762,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000679</t>
+          <t>260123451-Airolo-P-0000673</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000706</t>
+          <t>260123451-Airolo-F-0000699</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -1714,12 +1779,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000680</t>
+          <t>260123451-Airolo-P-0000674</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000707</t>
+          <t>260123451-Airolo-F-0000700</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -1731,12 +1796,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000680</t>
+          <t>260123451-Airolo-P-0000674</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000708</t>
+          <t>260123451-Airolo-F-0000701</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -1748,12 +1813,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000681</t>
+          <t>260123451-Airolo-P-0000675</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000709</t>
+          <t>260123451-Airolo-F-0000702</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -1765,12 +1830,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000681</t>
+          <t>260123451-Airolo-P-0000676</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000710</t>
+          <t>260123451-Airolo-F-0000703</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -1782,12 +1847,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000682</t>
+          <t>260123451-Airolo-P-0000677</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000711</t>
+          <t>260123451-Airolo-F-0000704</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -1799,12 +1864,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000683</t>
+          <t>260123451-Airolo-P-0000678</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000712</t>
+          <t>260123451-Airolo-F-0000705</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -1816,12 +1881,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000684</t>
+          <t>260123451-Airolo-P-0000679</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000713</t>
+          <t>260123451-Airolo-F-0000706</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -1833,12 +1898,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000685</t>
+          <t>260123451-Airolo-P-0000680</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000714</t>
+          <t>260123451-Airolo-F-0000707</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -1850,12 +1915,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000685</t>
+          <t>260123451-Airolo-P-0000680</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000715</t>
+          <t>260123451-Airolo-F-0000708</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -1867,12 +1932,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000686</t>
+          <t>260123451-Airolo-P-0000681</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000716</t>
+          <t>260123451-Airolo-F-0000709</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -1884,12 +1949,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000687</t>
+          <t>260123451-Airolo-P-0000681</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000717</t>
+          <t>260123451-Airolo-F-0000710</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -1901,12 +1966,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000688</t>
+          <t>260123451-Airolo-P-0000682</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000718</t>
+          <t>260123451-Airolo-F-0000711</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -1918,12 +1983,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000689</t>
+          <t>260123451-Airolo-P-0000683</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000719</t>
+          <t>260123451-Airolo-F-0000712</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -1935,12 +2000,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000690</t>
+          <t>260123451-Airolo-P-0000684</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000720</t>
+          <t>260123451-Airolo-F-0000713</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -1952,12 +2017,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000691</t>
+          <t>260123451-Airolo-P-0000685</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000721</t>
+          <t>260123451-Airolo-F-0000714</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -1969,12 +2034,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000692</t>
+          <t>260123451-Airolo-P-0000685</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000722</t>
+          <t>260123451-Airolo-F-0000715</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -1986,12 +2051,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000693</t>
+          <t>260123451-Airolo-P-0000686</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000723</t>
+          <t>260123451-Airolo-F-0000716</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2003,12 +2068,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000694</t>
+          <t>260123451-Airolo-P-0000687</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000724</t>
+          <t>260123451-Airolo-F-0000717</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2020,12 +2085,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000695</t>
+          <t>260123451-Airolo-P-0000688</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000725</t>
+          <t>260123451-Airolo-F-0000718</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2037,12 +2102,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000695</t>
+          <t>260123451-Airolo-P-0000689</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000726</t>
+          <t>260123451-Airolo-F-0000719</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2054,12 +2119,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000696</t>
+          <t>260123451-Airolo-P-0000690</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000727</t>
+          <t>260123451-Airolo-F-0000720</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2071,12 +2136,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000697</t>
+          <t>260123451-Airolo-P-0000691</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000728</t>
+          <t>260123451-Airolo-F-0000721</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2088,12 +2153,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000698</t>
+          <t>260123451-Airolo-P-0000692</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000729</t>
+          <t>260123451-Airolo-F-0000722</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2105,12 +2170,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000699</t>
+          <t>260123451-Airolo-P-0000693</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000730</t>
+          <t>260123451-Airolo-F-0000723</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2122,12 +2187,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000700</t>
+          <t>260123451-Airolo-P-0000694</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000731</t>
+          <t>260123451-Airolo-F-0000724</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2139,12 +2204,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000700</t>
+          <t>260123451-Airolo-P-0000695</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000732</t>
+          <t>260123451-Airolo-F-0000725</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2156,12 +2221,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000701</t>
+          <t>260123451-Airolo-P-0000695</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000733</t>
+          <t>260123451-Airolo-F-0000726</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2173,12 +2238,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000702</t>
+          <t>260123451-Airolo-P-0000696</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000734</t>
+          <t>260123451-Airolo-F-0000727</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2190,12 +2255,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000703</t>
+          <t>260123451-Airolo-P-0000697</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000735</t>
+          <t>260123451-Airolo-F-0000728</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2207,12 +2272,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000704</t>
+          <t>260123451-Airolo-P-0000698</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000736</t>
+          <t>260123451-Airolo-F-0000729</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2224,12 +2289,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000705</t>
+          <t>260123451-Airolo-P-0000699</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000737</t>
+          <t>260123451-Airolo-F-0000730</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2241,12 +2306,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000706</t>
+          <t>260123451-Airolo-P-0000700</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000738</t>
+          <t>260123451-Airolo-F-0000731</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2258,12 +2323,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000707</t>
+          <t>260123451-Airolo-P-0000700</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000739</t>
+          <t>260123451-Airolo-F-0000732</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -2275,12 +2340,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000708</t>
+          <t>260123451-Airolo-P-0000701</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000740</t>
+          <t>260123451-Airolo-F-0000733</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -2292,12 +2357,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000709</t>
+          <t>260123451-Airolo-P-0000702</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000741</t>
+          <t>260123451-Airolo-F-0000734</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -2309,12 +2374,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000710</t>
+          <t>260123451-Airolo-P-0000703</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000742</t>
+          <t>260123451-Airolo-F-0000735</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -2326,12 +2391,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000711</t>
+          <t>260123451-Airolo-P-0000704</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000743</t>
+          <t>260123451-Airolo-F-0000736</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -2343,12 +2408,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000712</t>
+          <t>260123451-Airolo-P-0000705</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000744</t>
+          <t>260123451-Airolo-F-0000737</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -2360,12 +2425,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000713</t>
+          <t>260123451-Airolo-P-0000706</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000745</t>
+          <t>260123451-Airolo-F-0000738</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -2377,12 +2442,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000714</t>
+          <t>260123451-Airolo-P-0000707</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000746</t>
+          <t>260123451-Airolo-F-0000739</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -2394,12 +2459,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000715</t>
+          <t>260123451-Airolo-P-0000708</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000747</t>
+          <t>260123451-Airolo-F-0000740</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -2411,12 +2476,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000716</t>
+          <t>260123451-Airolo-P-0000709</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000748</t>
+          <t>260123451-Airolo-F-0000741</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -2428,12 +2493,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000717</t>
+          <t>260123451-Airolo-P-0000710</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000749</t>
+          <t>260123451-Airolo-F-0000742</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -2445,12 +2510,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000718</t>
+          <t>260123451-Airolo-P-0000711</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000750</t>
+          <t>260123451-Airolo-F-0000743</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -2462,12 +2527,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000718</t>
+          <t>260123451-Airolo-P-0000712</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000751</t>
+          <t>260123451-Airolo-F-0000744</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -2479,12 +2544,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000719</t>
+          <t>260123451-Airolo-P-0000713</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000752</t>
+          <t>260123451-Airolo-F-0000745</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -2496,12 +2561,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000720</t>
+          <t>260123451-Airolo-P-0000714</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000753</t>
+          <t>260123451-Airolo-F-0000746</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -2513,12 +2578,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000721</t>
+          <t>260123451-Airolo-P-0000715</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000754</t>
+          <t>260123451-Airolo-F-0000747</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -2530,12 +2595,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000722</t>
+          <t>260123451-Airolo-P-0000716</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000755</t>
+          <t>260123451-Airolo-F-0000748</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -2547,12 +2612,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000723</t>
+          <t>260123451-Airolo-P-0000717</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000756</t>
+          <t>260123451-Airolo-F-0000749</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -2564,12 +2629,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000723</t>
+          <t>260123451-Airolo-P-0000718</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000757</t>
+          <t>260123451-Airolo-F-0000750</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -2581,12 +2646,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000724</t>
+          <t>260123451-Airolo-P-0000718</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000758</t>
+          <t>260123451-Airolo-F-0000751</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -2598,12 +2663,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000725</t>
+          <t>260123451-Airolo-P-0000719</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000759</t>
+          <t>260123451-Airolo-F-0000752</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -2615,12 +2680,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000726</t>
+          <t>260123451-Airolo-P-0000720</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000760</t>
+          <t>260123451-Airolo-F-0000753</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -2632,12 +2697,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000727</t>
+          <t>260123451-Airolo-P-0000721</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000761</t>
+          <t>260123451-Airolo-F-0000754</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -2649,12 +2714,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000727</t>
+          <t>260123451-Airolo-P-0000722</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000762</t>
+          <t>260123451-Airolo-F-0000755</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -2666,12 +2731,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000728</t>
+          <t>260123451-Airolo-P-0000723</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000763</t>
+          <t>260123451-Airolo-F-0000756</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -2683,12 +2748,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000729</t>
+          <t>260123451-Airolo-P-0000723</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000764</t>
+          <t>260123451-Airolo-F-0000757</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -2700,12 +2765,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000730</t>
+          <t>260123451-Airolo-P-0000724</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000765</t>
+          <t>260123451-Airolo-F-0000758</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -2717,12 +2782,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000731</t>
+          <t>260123451-Airolo-P-0000725</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000766</t>
+          <t>260123451-Airolo-F-0000759</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -2734,12 +2799,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000732</t>
+          <t>260123451-Airolo-P-0000726</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000767</t>
+          <t>260123451-Airolo-F-0000760</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -2751,12 +2816,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000733</t>
+          <t>260123451-Airolo-P-0000727</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000768</t>
+          <t>260123451-Airolo-F-0000761</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -2768,12 +2833,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000734</t>
+          <t>260123451-Airolo-P-0000727</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000769</t>
+          <t>260123451-Airolo-F-0000762</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -2785,12 +2850,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000734</t>
+          <t>260123451-Airolo-P-0000728</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000770</t>
+          <t>260123451-Airolo-F-0000763</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -2802,12 +2867,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000735</t>
+          <t>260123451-Airolo-P-0000729</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000771</t>
+          <t>260123451-Airolo-F-0000764</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -2819,12 +2884,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000736</t>
+          <t>260123451-Airolo-P-0000730</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000772</t>
+          <t>260123451-Airolo-F-0000765</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -2836,12 +2901,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000737</t>
+          <t>260123451-Airolo-P-0000731</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000773</t>
+          <t>260123451-Airolo-F-0000766</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -2853,12 +2918,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000738</t>
+          <t>260123451-Airolo-P-0000732</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000774</t>
+          <t>260123451-Airolo-F-0000767</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -2870,12 +2935,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000739</t>
+          <t>260123451-Airolo-P-0000733</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000775</t>
+          <t>260123451-Airolo-F-0000768</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -2887,12 +2952,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000740</t>
+          <t>260123451-Airolo-P-0000734</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000776</t>
+          <t>260123451-Airolo-F-0000769</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -2904,12 +2969,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000741</t>
+          <t>260123451-Airolo-P-0000734</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000777</t>
+          <t>260123451-Airolo-F-0000770</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -2921,12 +2986,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000742</t>
+          <t>260123451-Airolo-P-0000735</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000778</t>
+          <t>260123451-Airolo-F-0000771</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -2938,12 +3003,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000743</t>
+          <t>260123451-Airolo-P-0000736</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000779</t>
+          <t>260123451-Airolo-F-0000772</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -2955,12 +3020,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000744</t>
+          <t>260123451-Airolo-P-0000737</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000780</t>
+          <t>260123451-Airolo-F-0000773</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -2972,12 +3037,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000745</t>
+          <t>260123451-Airolo-P-0000738</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000781</t>
+          <t>260123451-Airolo-F-0000774</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -2989,12 +3054,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000746</t>
+          <t>260123451-Airolo-P-0000739</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000782</t>
+          <t>260123451-Airolo-F-0000775</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -3006,12 +3071,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000747</t>
+          <t>260123451-Airolo-P-0000740</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000783</t>
+          <t>260123451-Airolo-F-0000776</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -3023,12 +3088,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000748</t>
+          <t>260123451-Airolo-P-0000741</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000784</t>
+          <t>260123451-Airolo-F-0000777</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -3040,12 +3105,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000749</t>
+          <t>260123451-Airolo-P-0000742</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000785</t>
+          <t>260123451-Airolo-F-0000778</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -3057,12 +3122,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000750</t>
+          <t>260123451-Airolo-P-0000743</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000786</t>
+          <t>260123451-Airolo-F-0000779</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -3074,12 +3139,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000751</t>
+          <t>260123451-Airolo-P-0000744</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000787</t>
+          <t>260123451-Airolo-F-0000780</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -3091,12 +3156,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000752</t>
+          <t>260123451-Airolo-P-0000745</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000788</t>
+          <t>260123451-Airolo-F-0000781</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -3108,12 +3173,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000753</t>
+          <t>260123451-Airolo-P-0000746</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000789</t>
+          <t>260123451-Airolo-F-0000782</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -3125,12 +3190,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000754</t>
+          <t>260123451-Airolo-P-0000747</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000790</t>
+          <t>260123451-Airolo-F-0000783</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -3142,12 +3207,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000755</t>
+          <t>260123451-Airolo-P-0000748</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000791</t>
+          <t>260123451-Airolo-F-0000784</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -3159,12 +3224,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000756</t>
+          <t>260123451-Airolo-P-0000749</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000792</t>
+          <t>260123451-Airolo-F-0000785</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -3176,12 +3241,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000757</t>
+          <t>260123451-Airolo-P-0000750</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000793</t>
+          <t>260123451-Airolo-F-0000786</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -3193,12 +3258,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000758</t>
+          <t>260123451-Airolo-P-0000751</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000794</t>
+          <t>260123451-Airolo-F-0000787</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -3210,12 +3275,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000759</t>
+          <t>260123451-Airolo-P-0000752</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000795</t>
+          <t>260123451-Airolo-F-0000788</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -3227,12 +3292,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000760</t>
+          <t>260123451-Airolo-P-0000753</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000796</t>
+          <t>260123451-Airolo-F-0000789</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -3244,12 +3309,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000761</t>
+          <t>260123451-Airolo-P-0000754</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000797</t>
+          <t>260123451-Airolo-F-0000790</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -3261,12 +3326,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000762</t>
+          <t>260123451-Airolo-P-0000755</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000798</t>
+          <t>260123451-Airolo-F-0000791</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -3278,12 +3343,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000763</t>
+          <t>260123451-Airolo-P-0000756</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000799</t>
+          <t>260123451-Airolo-F-0000792</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -3295,12 +3360,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000764</t>
+          <t>260123451-Airolo-P-0000757</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000800</t>
+          <t>260123451-Airolo-F-0000793</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -3312,12 +3377,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000765</t>
+          <t>260123451-Airolo-P-0000758</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000801</t>
+          <t>260123451-Airolo-F-0000794</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -3329,12 +3394,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000766</t>
+          <t>260123451-Airolo-P-0000759</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000802</t>
+          <t>260123451-Airolo-F-0000795</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -3346,12 +3411,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000767</t>
+          <t>260123451-Airolo-P-0000760</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000803</t>
+          <t>260123451-Airolo-F-0000796</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -3363,12 +3428,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000768</t>
+          <t>260123451-Airolo-P-0000761</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000804</t>
+          <t>260123451-Airolo-F-0000797</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -3380,12 +3445,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000769</t>
+          <t>260123451-Airolo-P-0000762</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000805</t>
+          <t>260123451-Airolo-F-0000798</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -3397,12 +3462,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000770</t>
+          <t>260123451-Airolo-P-0000763</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000806</t>
+          <t>260123451-Airolo-F-0000799</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -3414,12 +3479,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000771</t>
+          <t>260123451-Airolo-P-0000764</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000807</t>
+          <t>260123451-Airolo-F-0000800</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -3431,12 +3496,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000772</t>
+          <t>260123451-Airolo-P-0000765</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000808</t>
+          <t>260123451-Airolo-F-0000801</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -3448,12 +3513,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000773</t>
+          <t>260123451-Airolo-P-0000766</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000809</t>
+          <t>260123451-Airolo-F-0000802</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -3465,12 +3530,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000774</t>
+          <t>260123451-Airolo-P-0000767</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000810</t>
+          <t>260123451-Airolo-F-0000803</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -3482,12 +3547,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000775</t>
+          <t>260123451-Airolo-P-0000768</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000811</t>
+          <t>260123451-Airolo-F-0000804</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -3499,12 +3564,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000776</t>
+          <t>260123451-Airolo-P-0000769</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000812</t>
+          <t>260123451-Airolo-F-0000805</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -3516,12 +3581,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000777</t>
+          <t>260123451-Airolo-P-0000770</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000813</t>
+          <t>260123451-Airolo-F-0000806</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -3533,12 +3598,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000778</t>
+          <t>260123451-Airolo-P-0000771</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000814</t>
+          <t>260123451-Airolo-F-0000807</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -3550,12 +3615,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000779</t>
+          <t>260123451-Airolo-P-0000772</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000815</t>
+          <t>260123451-Airolo-F-0000808</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -3567,12 +3632,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000780</t>
+          <t>260123451-Airolo-P-0000773</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000816</t>
+          <t>260123451-Airolo-F-0000809</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -3584,12 +3649,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000781</t>
+          <t>260123451-Airolo-P-0000774</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000817</t>
+          <t>260123451-Airolo-F-0000810</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -3601,12 +3666,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000782</t>
+          <t>260123451-Airolo-P-0000775</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000818</t>
+          <t>260123451-Airolo-F-0000811</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -3618,12 +3683,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000783</t>
+          <t>260123451-Airolo-P-0000776</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000819</t>
+          <t>260123451-Airolo-F-0000812</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -3635,12 +3700,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000784</t>
+          <t>260123451-Airolo-P-0000777</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000820</t>
+          <t>260123451-Airolo-F-0000813</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -3652,12 +3717,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000785</t>
+          <t>260123451-Airolo-P-0000778</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000821</t>
+          <t>260123451-Airolo-F-0000814</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -3669,12 +3734,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000786</t>
+          <t>260123451-Airolo-P-0000779</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000822</t>
+          <t>260123451-Airolo-F-0000815</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -3686,12 +3751,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000787</t>
+          <t>260123451-Airolo-P-0000780</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000823</t>
+          <t>260123451-Airolo-F-0000816</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -3703,12 +3768,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000788</t>
+          <t>260123451-Airolo-P-0000781</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000824</t>
+          <t>260123451-Airolo-F-0000817</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -3720,12 +3785,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000789</t>
+          <t>260123451-Airolo-P-0000782</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000825</t>
+          <t>260123451-Airolo-F-0000818</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -3737,12 +3802,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000790</t>
+          <t>260123451-Airolo-P-0000783</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000826</t>
+          <t>260123451-Airolo-F-0000819</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -3754,12 +3819,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000791</t>
+          <t>260123451-Airolo-P-0000784</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000827</t>
+          <t>260123451-Airolo-F-0000820</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -3771,12 +3836,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000792</t>
+          <t>260123451-Airolo-P-0000785</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000828</t>
+          <t>260123451-Airolo-F-0000821</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -3788,12 +3853,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000793</t>
+          <t>260123451-Airolo-P-0000786</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000829</t>
+          <t>260123451-Airolo-F-0000822</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -3805,12 +3870,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000794</t>
+          <t>260123451-Airolo-P-0000787</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000830</t>
+          <t>260123451-Airolo-F-0000823</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -3822,12 +3887,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000795</t>
+          <t>260123451-Airolo-P-0000788</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000831</t>
+          <t>260123451-Airolo-F-0000824</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -3839,12 +3904,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000796</t>
+          <t>260123451-Airolo-P-0000789</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000832</t>
+          <t>260123451-Airolo-F-0000825</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -3856,12 +3921,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000797</t>
+          <t>260123451-Airolo-P-0000790</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000833</t>
+          <t>260123451-Airolo-F-0000826</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -3873,12 +3938,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000798</t>
+          <t>260123451-Airolo-P-0000791</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000834</t>
+          <t>260123451-Airolo-F-0000827</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -3890,12 +3955,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000799</t>
+          <t>260123451-Airolo-P-0000792</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000835</t>
+          <t>260123451-Airolo-F-0000828</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -3907,12 +3972,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000800</t>
+          <t>260123451-Airolo-P-0000793</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000836</t>
+          <t>260123451-Airolo-F-0000829</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -3924,12 +3989,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000801</t>
+          <t>260123451-Airolo-P-0000794</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000837</t>
+          <t>260123451-Airolo-F-0000830</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -3941,12 +4006,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000802</t>
+          <t>260123451-Airolo-P-0000795</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000838</t>
+          <t>260123451-Airolo-F-0000831</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -3958,12 +4023,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000802</t>
+          <t>260123451-Airolo-P-0000796</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000839</t>
+          <t>260123451-Airolo-F-0000832</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -3975,12 +4040,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000803</t>
+          <t>260123451-Airolo-P-0000797</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000840</t>
+          <t>260123451-Airolo-F-0000833</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -3992,12 +4057,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000804</t>
+          <t>260123451-Airolo-P-0000798</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000841</t>
+          <t>260123451-Airolo-F-0000834</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -4009,12 +4074,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000805</t>
+          <t>260123451-Airolo-P-0000799</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000842</t>
+          <t>260123451-Airolo-F-0000835</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -4026,12 +4091,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000806</t>
+          <t>260123451-Airolo-P-0000800</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000843</t>
+          <t>260123451-Airolo-F-0000836</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -4043,12 +4108,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000807</t>
+          <t>260123451-Airolo-P-0000801</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000844</t>
+          <t>260123451-Airolo-F-0000837</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -4060,12 +4125,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000808</t>
+          <t>260123451-Airolo-P-0000802</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000845</t>
+          <t>260123451-Airolo-F-0000838</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -4077,12 +4142,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000809</t>
+          <t>260123451-Airolo-P-0000802</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000846</t>
+          <t>260123451-Airolo-F-0000839</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -4094,12 +4159,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000810</t>
+          <t>260123451-Airolo-P-0000803</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000847</t>
+          <t>260123451-Airolo-F-0000840</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -4111,12 +4176,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000811</t>
+          <t>260123451-Airolo-P-0000804</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000848</t>
+          <t>260123451-Airolo-F-0000841</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -4128,12 +4193,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000812</t>
+          <t>260123451-Airolo-P-0000805</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000849</t>
+          <t>260123451-Airolo-F-0000842</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -4145,12 +4210,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000813</t>
+          <t>260123451-Airolo-P-0000806</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000850</t>
+          <t>260123451-Airolo-F-0000843</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -4162,12 +4227,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000814</t>
+          <t>260123451-Airolo-P-0000807</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000851</t>
+          <t>260123451-Airolo-F-0000844</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -4179,12 +4244,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000815</t>
+          <t>260123451-Airolo-P-0000808</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000852</t>
+          <t>260123451-Airolo-F-0000845</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -4196,12 +4261,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000816</t>
+          <t>260123451-Airolo-P-0000809</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000853</t>
+          <t>260123451-Airolo-F-0000846</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -4213,12 +4278,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000817</t>
+          <t>260123451-Airolo-P-0000810</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000854</t>
+          <t>260123451-Airolo-F-0000847</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -4230,12 +4295,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000818</t>
+          <t>260123451-Airolo-P-0000811</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000855</t>
+          <t>260123451-Airolo-F-0000848</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -4247,12 +4312,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000818</t>
+          <t>260123451-Airolo-P-0000812</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000856</t>
+          <t>260123451-Airolo-F-0000849</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -4264,12 +4329,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000819</t>
+          <t>260123451-Airolo-P-0000813</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000857</t>
+          <t>260123451-Airolo-F-0000850</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -4281,12 +4346,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000820</t>
+          <t>260123451-Airolo-P-0000814</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000858</t>
+          <t>260123451-Airolo-F-0000851</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -4298,12 +4363,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000821</t>
+          <t>260123451-Airolo-P-0000815</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000859</t>
+          <t>260123451-Airolo-F-0000852</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -4315,12 +4380,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000822</t>
+          <t>260123451-Airolo-P-0000816</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000860</t>
+          <t>260123451-Airolo-F-0000853</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -4332,12 +4397,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000823</t>
+          <t>260123451-Airolo-P-0000817</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000861</t>
+          <t>260123451-Airolo-F-0000854</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -4349,12 +4414,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000824</t>
+          <t>260123451-Airolo-P-0000818</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000862</t>
+          <t>260123451-Airolo-F-0000855</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -4366,12 +4431,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000825</t>
+          <t>260123451-Airolo-P-0000818</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000863</t>
+          <t>260123451-Airolo-F-0000856</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -4383,12 +4448,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000826</t>
+          <t>260123451-Airolo-P-0000819</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000864</t>
+          <t>260123451-Airolo-F-0000857</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -4400,12 +4465,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000827</t>
+          <t>260123451-Airolo-P-0000820</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000865</t>
+          <t>260123451-Airolo-F-0000858</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -4417,12 +4482,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000828</t>
+          <t>260123451-Airolo-P-0000821</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000866</t>
+          <t>260123451-Airolo-F-0000859</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -4434,12 +4499,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000829</t>
+          <t>260123451-Airolo-P-0000822</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000867</t>
+          <t>260123451-Airolo-F-0000860</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -4451,12 +4516,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000830</t>
+          <t>260123451-Airolo-P-0000823</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000868</t>
+          <t>260123451-Airolo-F-0000861</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -4468,12 +4533,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000831</t>
+          <t>260123451-Airolo-P-0000824</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000869</t>
+          <t>260123451-Airolo-F-0000862</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -4485,12 +4550,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000832</t>
+          <t>260123451-Airolo-P-0000825</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000870</t>
+          <t>260123451-Airolo-F-0000863</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -4502,12 +4567,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000833</t>
+          <t>260123451-Airolo-P-0000826</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000871</t>
+          <t>260123451-Airolo-F-0000864</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -4519,12 +4584,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000834</t>
+          <t>260123451-Airolo-P-0000827</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000872</t>
+          <t>260123451-Airolo-F-0000865</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -4536,12 +4601,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000835</t>
+          <t>260123451-Airolo-P-0000828</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000873</t>
+          <t>260123451-Airolo-F-0000866</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -4553,12 +4618,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000836</t>
+          <t>260123451-Airolo-P-0000829</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000874</t>
+          <t>260123451-Airolo-F-0000867</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -4570,12 +4635,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000836</t>
+          <t>260123451-Airolo-P-0000830</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000875</t>
+          <t>260123451-Airolo-F-0000868</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -4587,12 +4652,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000837</t>
+          <t>260123451-Airolo-P-0000831</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000876</t>
+          <t>260123451-Airolo-F-0000869</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -4604,12 +4669,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000838</t>
+          <t>260123451-Airolo-P-0000832</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000877</t>
+          <t>260123451-Airolo-F-0000870</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -4621,12 +4686,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000839</t>
+          <t>260123451-Airolo-P-0000833</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000878</t>
+          <t>260123451-Airolo-F-0000871</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -4638,12 +4703,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000840</t>
+          <t>260123451-Airolo-P-0000834</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000879</t>
+          <t>260123451-Airolo-F-0000872</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -4655,12 +4720,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000841</t>
+          <t>260123451-Airolo-P-0000835</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000880</t>
+          <t>260123451-Airolo-F-0000873</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -4672,12 +4737,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000842</t>
+          <t>260123451-Airolo-P-0000836</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000881</t>
+          <t>260123451-Airolo-F-0000874</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -4689,12 +4754,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000843</t>
+          <t>260123451-Airolo-P-0000836</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000882</t>
+          <t>260123451-Airolo-F-0000875</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -4706,12 +4771,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000844</t>
+          <t>260123451-Airolo-P-0000837</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000883</t>
+          <t>260123451-Airolo-F-0000876</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -4723,12 +4788,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000845</t>
+          <t>260123451-Airolo-P-0000838</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000884</t>
+          <t>260123451-Airolo-F-0000877</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -4740,12 +4805,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000846</t>
+          <t>260123451-Airolo-P-0000839</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000885</t>
+          <t>260123451-Airolo-F-0000878</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -4757,12 +4822,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000847</t>
+          <t>260123451-Airolo-P-0000840</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000886</t>
+          <t>260123451-Airolo-F-0000879</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -4774,12 +4839,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000847</t>
+          <t>260123451-Airolo-P-0000841</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000887</t>
+          <t>260123451-Airolo-F-0000880</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -4791,12 +4856,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000848</t>
+          <t>260123451-Airolo-P-0000842</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000888</t>
+          <t>260123451-Airolo-F-0000881</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -4808,12 +4873,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000849</t>
+          <t>260123451-Airolo-P-0000843</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000889</t>
+          <t>260123451-Airolo-F-0000882</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -4825,12 +4890,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000850</t>
+          <t>260123451-Airolo-P-0000844</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000890</t>
+          <t>260123451-Airolo-F-0000883</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -4842,12 +4907,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000851</t>
+          <t>260123451-Airolo-P-0000845</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000891</t>
+          <t>260123451-Airolo-F-0000884</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -4859,12 +4924,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000852</t>
+          <t>260123451-Airolo-P-0000846</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000892</t>
+          <t>260123451-Airolo-F-0000885</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -4876,12 +4941,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000853</t>
+          <t>260123451-Airolo-P-0000847</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000893</t>
+          <t>260123451-Airolo-F-0000886</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -4893,12 +4958,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000854</t>
+          <t>260123451-Airolo-P-0000847</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000894</t>
+          <t>260123451-Airolo-F-0000887</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -4910,12 +4975,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000855</t>
+          <t>260123451-Airolo-P-0000848</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000895</t>
+          <t>260123451-Airolo-F-0000888</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -4927,12 +4992,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000856</t>
+          <t>260123451-Airolo-P-0000849</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000896</t>
+          <t>260123451-Airolo-F-0000889</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -4944,12 +5009,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000857</t>
+          <t>260123451-Airolo-P-0000850</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000897</t>
+          <t>260123451-Airolo-F-0000890</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -4961,12 +5026,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000858</t>
+          <t>260123451-Airolo-P-0000851</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000898</t>
+          <t>260123451-Airolo-F-0000891</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -4978,12 +5043,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000859</t>
+          <t>260123451-Airolo-P-0000852</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000899</t>
+          <t>260123451-Airolo-F-0000892</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -4995,12 +5060,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000860</t>
+          <t>260123451-Airolo-P-0000853</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000900</t>
+          <t>260123451-Airolo-F-0000893</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -5012,12 +5077,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000861</t>
+          <t>260123451-Airolo-P-0000854</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000901</t>
+          <t>260123451-Airolo-F-0000894</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -5029,12 +5094,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000862</t>
+          <t>260123451-Airolo-P-0000855</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000902</t>
+          <t>260123451-Airolo-F-0000895</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -5046,12 +5111,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000863</t>
+          <t>260123451-Airolo-P-0000856</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000903</t>
+          <t>260123451-Airolo-F-0000896</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -5063,12 +5128,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000864</t>
+          <t>260123451-Airolo-P-0000857</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000904</t>
+          <t>260123451-Airolo-F-0000897</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -5080,12 +5145,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000865</t>
+          <t>260123451-Airolo-P-0000858</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000905</t>
+          <t>260123451-Airolo-F-0000898</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -5097,12 +5162,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000866</t>
+          <t>260123451-Airolo-P-0000859</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000906</t>
+          <t>260123451-Airolo-F-0000899</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -5114,12 +5179,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000867</t>
+          <t>260123451-Airolo-P-0000860</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000907</t>
+          <t>260123451-Airolo-F-0000900</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -5131,12 +5196,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000868</t>
+          <t>260123451-Airolo-P-0000861</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000908</t>
+          <t>260123451-Airolo-F-0000901</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -5148,12 +5213,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000869</t>
+          <t>260123451-Airolo-P-0000862</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000909</t>
+          <t>260123451-Airolo-F-0000902</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -5165,12 +5230,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000869</t>
+          <t>260123451-Airolo-P-0000863</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000910</t>
+          <t>260123451-Airolo-F-0000903</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -5182,12 +5247,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000870</t>
+          <t>260123451-Airolo-P-0000864</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000911</t>
+          <t>260123451-Airolo-F-0000904</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -5199,12 +5264,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000870</t>
+          <t>260123451-Airolo-P-0000865</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0000912</t>
+          <t>260123451-Airolo-F-0000905</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -5216,12 +5281,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000983</t>
+          <t>260123451-Airolo-P-0000866</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0001036</t>
+          <t>260123451-Airolo-F-0000906</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -5233,12 +5298,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000984</t>
+          <t>260123451-Airolo-P-0000867</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0001037</t>
+          <t>260123451-Airolo-F-0000907</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -5250,12 +5315,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000985</t>
+          <t>260123451-Airolo-P-0000868</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0001038</t>
+          <t>260123451-Airolo-F-0000908</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -5267,12 +5332,12 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000986</t>
+          <t>260123451-Airolo-P-0000869</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0001039</t>
+          <t>260123451-Airolo-F-0000909</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -5284,12 +5349,12 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000987</t>
+          <t>260123451-Airolo-P-0000869</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0001040</t>
+          <t>260123451-Airolo-F-0000910</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -5301,12 +5366,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000988</t>
+          <t>260123451-Airolo-P-0000870</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0001041</t>
+          <t>260123451-Airolo-F-0000911</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -5318,12 +5383,12 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000989</t>
+          <t>260123451-Airolo-P-0000870</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0001042</t>
+          <t>260123451-Airolo-F-0000912</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -5335,29 +5400,39 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000990</t>
+          <t>260123451-Airolo-P-0000923</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0001043</t>
+          <t>260123451-Airolo-F-0000970</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>K83.0</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>447764</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: K83.0 - 447764 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000991</t>
+          <t>260123451-Airolo-P-0000983</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0001044</t>
+          <t>260123451-Airolo-F-0001036</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -5369,12 +5444,12 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000992</t>
+          <t>260123451-Airolo-P-0000984</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0001045</t>
+          <t>260123451-Airolo-F-0001037</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -5386,12 +5461,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000993</t>
+          <t>260123451-Airolo-P-0000985</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0001046</t>
+          <t>260123451-Airolo-F-0001038</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -5403,12 +5478,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000994</t>
+          <t>260123451-Airolo-P-0000986</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0001047</t>
+          <t>260123451-Airolo-F-0001039</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -5420,12 +5495,12 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000995</t>
+          <t>260123451-Airolo-P-0000987</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0001048</t>
+          <t>260123451-Airolo-F-0001040</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -5437,12 +5512,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000996</t>
+          <t>260123451-Airolo-P-0000988</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0001049</t>
+          <t>260123451-Airolo-F-0001041</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -5454,12 +5529,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000997</t>
+          <t>260123451-Airolo-P-0000989</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0001050</t>
+          <t>260123451-Airolo-F-0001042</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -5471,12 +5546,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000998</t>
+          <t>260123451-Airolo-P-0000990</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0001051</t>
+          <t>260123451-Airolo-F-0001043</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -5488,12 +5563,12 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0000999</t>
+          <t>260123451-Airolo-P-0000991</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0001052</t>
+          <t>260123451-Airolo-F-0001044</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -5505,15 +5580,32 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0001000</t>
+          <t>260123451-Airolo-P-0000992</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0001053</t>
+          <t>260123451-Airolo-F-0001045</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000993</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0001046</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
         <is>
           <t xml:space="preserve">Fehlender ICD-Code.  </t>
         </is>
@@ -5522,7 +5614,126 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Folgende mandatorische Items fehlen:  Kontakt_Klasse , DiagnoseRolle</t>
+          <t>260123451-Airolo-P-0000994</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0001047</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000995</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0001048</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000996</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0001049</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000997</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0001050</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000998</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0001051</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0000999</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0001052</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-P-0001000</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>260123451-Airolo-F-0001053</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Folgende mandatorische Items fehlen:  Kontakt_Klasse , Fall_Status , DiagnoseRolle</t>
         </is>
       </c>
     </row>
@@ -5646,31 +5857,31 @@
         <v>2020</v>
       </c>
       <c r="C2">
-        <v>14.29</v>
+        <v>21.43</v>
       </c>
       <c r="D2">
-        <v>3.46</v>
+        <v>3.78</v>
       </c>
       <c r="E2">
-        <v>47.37</v>
+        <v>45</v>
       </c>
       <c r="F2">
         <v>0.17</v>
       </c>
       <c r="G2">
-        <v>82.8</v>
+        <v>76.34</v>
       </c>
       <c r="H2">
-        <v>80.81</v>
+        <v>75</v>
       </c>
       <c r="I2">
         <v>0.32</v>
       </c>
       <c r="J2">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="K2">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="L2">
         <v>0.9</v>
@@ -5682,10 +5893,10 @@
         <v>90</v>
       </c>
       <c r="O2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="P2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q2">
         <v>997</v>

--- a/Local/Data/Export/DQ-Report_fhirTestData_2020.xlsx
+++ b/Local/Data/Export/DQ-Report_fhirTestData_2020.xlsx
@@ -5744,7 +5744,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5813,37 +5813,42 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>case_no_py_ipat</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>case_no_py</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>patient_no_py</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>orphaCoding_no_py</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>rdCase_no_py</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>orphaCase_no_py</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>unambigous_rdCase_no_py</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>rdCase_no_py</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>case_no_py</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>patient_no_py</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>case_no_py_ipat</t>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>tracerCase_no_py</t>
         </is>
       </c>
     </row>
@@ -5887,25 +5892,28 @@
         <v>0.9</v>
       </c>
       <c r="M2">
+        <v>10000</v>
+      </c>
+      <c r="N2">
+        <v>997</v>
+      </c>
+      <c r="O2">
+        <v>950</v>
+      </c>
+      <c r="P2">
         <v>92</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
+        <v>100</v>
+      </c>
+      <c r="R2">
         <v>90</v>
       </c>
-      <c r="O2">
+      <c r="S2">
         <v>75</v>
       </c>
-      <c r="P2">
-        <v>100</v>
-      </c>
-      <c r="Q2">
-        <v>997</v>
-      </c>
-      <c r="R2">
-        <v>950</v>
-      </c>
-      <c r="S2">
-        <v>10000</v>
+      <c r="T2">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Local/Data/Export/DQ-Report_fhirTestData_2020.xlsx
+++ b/Local/Data/Export/DQ-Report_fhirTestData_2020.xlsx
@@ -408,7 +408,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unplausibles Geburtsdatum 1877-12-01 Max Alter 105. </t>
+          <t xml:space="preserve">Implausible birthdate 1877-12-01 maximal age 105. </t>
         </is>
       </c>
     </row>
@@ -430,7 +430,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD10 Code G54.8 ist nicht eindeutig. Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+          <t xml:space="preserve">Ambiguous ICD10 Code G54.8 . Missing AlphaID Code.  Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -457,7 +457,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.8 - 97927 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: E03.8 - 97927 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender Orpha Code.  </t>
+          <t xml:space="preserve">Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Unplausibles Diagnosedatum 2030-07-09 Datum liegt in der Zukunft.</t>
+          <t>Implausible diagnosis date 2030-07-09 date in the future.</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: I69.4 - 166282 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: I69.4 - 166282 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD10 Code E83.8 ist nicht eindeutig. Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+          <t xml:space="preserve">Ambiguous ICD10 Code E83.8 . Missing AlphaID Code.  Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orpha Code OR-4956 ist nicht valide.  Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: D48.6 - OR-4956 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Invalid Orpha code. OR-4956 Ambiguous Coding. ICD10-Orpha combination: D48.6 - OR-4956 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: D24 - 50920 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: D24 - 50920 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orpha Code A5237 ist nicht valide.  Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: D24 - A5237 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Invalid Orpha code. A5237 Ambiguous Coding. ICD10-Orpha combination: D24 - A5237 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD10 Code C91.40 ist nicht eindeutig. Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+          <t xml:space="preserve">Ambiguous ICD10 Code C91.40 . Missing AlphaID Code.  Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -675,7 +675,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD10 Code D82.8 ist nicht eindeutig. Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+          <t xml:space="preserve">Ambiguous ICD10 Code D82.8 . Missing AlphaID Code.  Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD10 Code K83.01 ist nicht eindeutig. Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+          <t xml:space="preserve">Ambiguous ICD10 Code K83.01 . Missing AlphaID Code.  Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unplausibles Geburtsdatum 1848-01-01 Max Alter 105. </t>
+          <t xml:space="preserve">Implausible birthdate 1848-01-01 maximal age 105. </t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.8 - 97927 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: E03.8 - 97927 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.8 - 97927 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: E03.8 - 97927 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.0 - 797 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: E03.0 - 797 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.1 - 797 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: E03.1 - 797 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.5 - 424991 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: E03.5 - 424991 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E84.8 - 586 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: E84.8 - 586 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -908,7 +908,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.8 - 97927 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: E03.8 - 97927 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E84.89 - 586 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: E84.89 - 586 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Unplausibles Aufnahmedatum 3020-02-21 Datum liegt in der Zukunft.</t>
+          <t>Implausible admission date 3020-02-21 date in the future.</t>
         </is>
       </c>
     </row>
@@ -984,7 +984,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Unplausibles Aufnahmedatum 3020-02-21 Datum liegt in der Zukunft.</t>
+          <t>Implausible admission date 3020-02-21 date in the future.</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Unplausibles Diagnosedatum 2030-01-07 Datum liegt in der Zukunft.</t>
+          <t>Implausible diagnosis date 2030-01-07 date in the future.</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+          <t xml:space="preserve">Missing AlphaID Code.  Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+          <t xml:space="preserve">Missing AlphaID Code.  Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+          <t xml:space="preserve">Missing AlphaID Code.  Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+          <t xml:space="preserve">Missing AlphaID Code.  Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: G90.2 - 274 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: G90.2 - 274 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: D24 - 50920 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: D24 - 50920 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.8 - 97927 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: E03.8 - 97927 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: D24 - 50920 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: D24 - 50920 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.1 - 442 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: E03.1 - 442 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: I27.0 - 769 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: I27.0 - 769 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Unplausibles Diagnosedatum 2040-01-18 Datum liegt in der Zukunft.</t>
+          <t>Implausible diagnosis date 2040-01-18 date in the future.</t>
         </is>
       </c>
     </row>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Unplausibles Diagnosedatum 3020-02-26 Datum liegt in der Zukunft.</t>
+          <t>Implausible diagnosis date 3020-02-26 date in the future.</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: G43.1 - 209981 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: G43.1 - 209981 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+          <t xml:space="preserve">Missing AlphaID Code.  Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.8 - 97927 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: E03.8 - 97927 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4645,7 +4645,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4730,7 +4730,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4883,7 +4883,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4934,7 +4934,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4968,7 +4968,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5002,7 +5002,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5189,7 +5189,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5206,7 +5206,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5223,7 +5223,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5240,7 +5240,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5393,7 +5393,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: K83.0 - 447764 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: K83.0 - 447764 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5488,7 +5488,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5505,7 +5505,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5522,7 +5522,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5539,7 +5539,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5556,7 +5556,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5573,7 +5573,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5590,7 +5590,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5624,7 +5624,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5675,7 +5675,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5692,7 +5692,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5726,7 +5726,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>unambigous_rdCase_rel_py_ipat</t>
+          <t>unambiguous_rdCase_rel_py_ipat</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -5843,7 +5843,7 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>unambigous_rdCase_no_py</t>
+          <t>unambiguous_rdCase_no_py</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
